--- a/tests/Типы источников/т-250_(100-110-180)/расчет турбин типа т.xlsx
+++ b/tests/Типы источников/т-250_(100-110-180)/расчет турбин типа т.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58E709-9016-4163-8A5B-B0E3A583BBE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="т-250-функция" sheetId="1" r:id="rId1"/>
+    <sheet name="т-250" sheetId="1" r:id="rId1"/>
     <sheet name="chpTubineExtr" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="т-110-функция" sheetId="3" r:id="rId3"/>
+    <sheet name="т-110" sheetId="3" r:id="rId3"/>
+    <sheet name="т-180" sheetId="5" r:id="rId4"/>
+    <sheet name="т-100" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <r>
       <t>1 </t>
@@ -117,11 +118,17 @@
   <si>
     <t>соотн</t>
   </si>
+  <si>
+    <t>Гдж/ч</t>
+  </si>
+  <si>
+    <t>Мвт</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,16 +283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>65375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>587519</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>463694</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -308,8 +315,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7380575" y="342900"/>
+          <a:off x="6647150" y="104775"/>
           <a:ext cx="6351444" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="13185"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="0"/>
+          <a:ext cx="5200650" cy="7057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -491,6 +535,135 @@
         <a:xfrm>
           <a:off x="10848975" y="7467600"/>
           <a:ext cx="6028571" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>532649</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>103839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="47625"/>
+          <a:ext cx="6009524" cy="7485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286375" y="85725"/>
+          <a:ext cx="4361905" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312457</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="142875"/>
+          <a:ext cx="14942857" cy="2733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H22:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E9BD9E-C45C-4B0B-822E-D30DF0BA8C07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -868,15 +1041,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46350860-0486-4FF9-B660-A8BAECF03007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="Q3:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <f>1/S3</f>
+        <v>3.5971223021582732</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>1089</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <f>Q6*S3</f>
+        <v>302.74200000000002</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>